--- a/config_8.31/act_055_xhns_config.xlsx
+++ b/config_8.31/act_055_xhns_config.xlsx
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1000736</v>

--- a/config_8.31/act_055_xhns_config.xlsx
+++ b/config_8.31/act_055_xhns_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -198,30 +198,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ty_icon_flq2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_flq3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -425,6 +421,10 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>5000</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,13 +1056,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>15000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1073,13 +1073,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -1127,10 +1127,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1144,10 +1144,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,10 +1161,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1178,10 +1178,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
